--- a/Mifos Automation Excels/Client/3510-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-None-Make1RepaymentThenEditTransaction-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3510-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-None-Make1RepaymentThenEditTransaction-Makerepayment1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="3"/>
   </bookViews>
@@ -23,10 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
-  <si>
-    <t>heading</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>Original</t>
   </si>
@@ -142,8 +134,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -155,6 +147,11 @@
     </font>
     <font>
       <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
@@ -197,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -234,6 +231,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -295,7 +295,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,26 +328,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,23 +363,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -587,15 +553,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="11">
         <v>42036</v>
@@ -623,31 +589,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="11">
         <v>42050</v>
@@ -655,7 +621,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="13">
         <v>950</v>
@@ -663,10 +629,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -692,22 +658,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -796,10 +762,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -807,55 +773,51 @@
     <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>5</v>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -885,6 +847,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
@@ -921,13 +884,14 @@
       <c r="L3" s="4">
         <v>887.72</v>
       </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
       <c r="O3" s="4">
         <v>887.72</v>
       </c>
+      <c r="P3" s="4"/>
       <c r="Q3" s="4">
         <v>0</v>
       </c>
@@ -962,18 +926,19 @@
         <v>0</v>
       </c>
       <c r="K4" s="4">
-        <v>62.28</v>
+        <v>46.03</v>
       </c>
       <c r="L4" s="4">
         <v>62.28</v>
       </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4">
+        <v>16.25</v>
+      </c>
       <c r="O4" s="4">
         <v>0</v>
       </c>
+      <c r="P4" s="4"/>
       <c r="Q4" s="4">
         <v>0</v>
       </c>
@@ -1011,13 +976,14 @@
       <c r="L5" s="4">
         <v>0</v>
       </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
       <c r="O5" s="4">
         <v>0</v>
       </c>
+      <c r="P5" s="4"/>
       <c r="Q5" s="4">
         <v>887.72</v>
       </c>
@@ -1055,13 +1021,14 @@
       <c r="L6" s="4">
         <v>0</v>
       </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
       <c r="O6" s="4">
         <v>0</v>
       </c>
+      <c r="P6" s="4"/>
       <c r="Q6" s="4">
         <v>887.72</v>
       </c>
@@ -1099,13 +1066,14 @@
       <c r="L7" s="4">
         <v>0</v>
       </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
       <c r="O7" s="4">
         <v>0</v>
       </c>
+      <c r="P7" s="4"/>
       <c r="Q7" s="4">
         <v>887.72</v>
       </c>
@@ -1143,15 +1111,331 @@
       <c r="L8" s="4">
         <v>0</v>
       </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
       <c r="O8" s="4">
         <v>0</v>
       </c>
+      <c r="P8" s="4"/>
       <c r="Q8" s="4">
         <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>30</v>
+      </c>
+      <c r="C9" s="5">
+        <v>42186</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
+        <v>829.27</v>
+      </c>
+      <c r="G9" s="6">
+        <v>5097.18</v>
+      </c>
+      <c r="H9" s="4">
+        <v>58.45</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>887.72</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>31</v>
+      </c>
+      <c r="C10" s="5">
+        <v>42217</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
+        <v>835.77</v>
+      </c>
+      <c r="G10" s="6">
+        <v>4261.41</v>
+      </c>
+      <c r="H10" s="4">
+        <v>51.95</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>887.72</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>31</v>
+      </c>
+      <c r="C11" s="5">
+        <v>42248</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
+        <v>844.29</v>
+      </c>
+      <c r="G11" s="6">
+        <v>3417.12</v>
+      </c>
+      <c r="H11" s="4">
+        <v>43.43</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>887.72</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>30</v>
+      </c>
+      <c r="C12" s="5">
+        <v>42278</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
+        <v>854.02</v>
+      </c>
+      <c r="G12" s="6">
+        <v>2563.1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>887.72</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>31</v>
+      </c>
+      <c r="C13" s="5">
+        <v>42309</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
+        <v>861.6</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1701.5</v>
+      </c>
+      <c r="H13" s="4">
+        <v>26.12</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>887.72</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>30</v>
+      </c>
+      <c r="C14" s="5">
+        <v>42339</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
+        <v>870.94</v>
+      </c>
+      <c r="G14" s="4">
+        <v>830.56</v>
+      </c>
+      <c r="H14" s="4">
+        <v>16.78</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>887.72</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>31</v>
+      </c>
+      <c r="C15" s="5">
+        <v>42370</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4">
+        <v>830.56</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>839.02</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4">
+        <v>839.02</v>
       </c>
     </row>
   </sheetData>
@@ -1171,34 +1455,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1206,13 +1490,13 @@
         <v>57</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="8">
         <v>42050</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="7">
         <v>950</v>
@@ -1238,13 +1522,13 @@
         <v>55</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="8">
         <v>42036</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="7">
         <v>887.72</v>
@@ -1270,13 +1554,13 @@
         <v>53</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="8">
         <v>42005</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="9">
         <v>10000</v>
